--- a/core/src/Data/yorkMap.xlsx
+++ b/core/src/Data/yorkMap.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20352"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\warKroy\core\src\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D437A9-69FB-47B0-AFFE-0109E8AC2196}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="330" windowWidth="27555" windowHeight="12570"/>
+    <workbookView xWindow="720" yWindow="330" windowWidth="27555" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yorkMap" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,32 +546,34 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="112">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+  <dxfs count="111">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1330,6 +1338,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1378,7 +1389,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1411,9 +1422,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1446,6 +1474,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1621,11 +1666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BQ17" sqref="BQ17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="BR11" sqref="BR11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,7 +1895,7 @@
         <v>4</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -2731,7 +2776,7 @@
         <v>4</v>
       </c>
       <c r="AQ6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR6">
         <v>1</v>
@@ -4432,7 +4477,7 @@
         <v>4</v>
       </c>
       <c r="AB15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC15">
         <v>1</v>
@@ -4504,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="AZ15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA15">
         <v>4</v>
@@ -7787,7 +7832,7 @@
         <v>1</v>
       </c>
       <c r="AU32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV32">
         <v>4</v>
@@ -7903,7 +7948,7 @@
         <v>1</v>
       </c>
       <c r="U33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33">
         <v>4</v>
@@ -8619,129 +8664,137 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A38:BR38 A1:AT1 A30:BK36 A5:BH18 A19:AY23 A24:AZ24 A27:BF29 A25:BD26 BL33:BL36 AY4:BH4 AY3:BL3 AO3:AP4 AO2:AT2 A2:AE4">
-    <cfRule type="cellIs" dxfId="111" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="39" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="40" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="41" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU1:BL2">
-    <cfRule type="cellIs" dxfId="103" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="35" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="36" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="37" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI4:BL18">
-    <cfRule type="cellIs" dxfId="87" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="27" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="28" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="29" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ19:BL23">
-    <cfRule type="cellIs" dxfId="79" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="23" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="24" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="25" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA24:BL24">
-    <cfRule type="cellIs" dxfId="71" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="19" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="20" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG25:BL29 BL30:BL32">
-    <cfRule type="cellIs" dxfId="63" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="15" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="16" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="17" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE25:BF26">
-    <cfRule type="cellIs" dxfId="55" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ3:AX4">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF2:AN4">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:BL36">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
